--- a/Vivodata/Spreadsheet/VivoSkill.xlsx
+++ b/Vivodata/Spreadsheet/VivoSkill.xlsx
@@ -4862,8 +4862,8 @@
   </sheetPr>
   <dimension ref="A1:AMK2081"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A526" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C548" activeCellId="0" sqref="C548"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A822" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G850" activeCellId="0" sqref="G850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19578,7 +19578,7 @@
         <v>100</v>
       </c>
       <c r="K844" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20171,7 +20171,7 @@
         <v>100</v>
       </c>
       <c r="K879" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20370,7 +20370,7 @@
         <v>100</v>
       </c>
       <c r="K891" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21522,7 +21522,7 @@
         <v>100</v>
       </c>
       <c r="K954" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L954" s="11" t="s">
         <v>655</v>
@@ -22263,7 +22263,7 @@
         <v>100</v>
       </c>
       <c r="K996" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L996" s="11" t="s">
         <v>655</v>
@@ -22387,7 +22387,7 @@
         <v>100</v>
       </c>
       <c r="K1003" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L1003" s="11" t="s">
         <v>655</v>
@@ -22753,7 +22753,7 @@
         <v>100</v>
       </c>
       <c r="K1024" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L1024" s="11" t="s">
         <v>655</v>
@@ -23533,7 +23533,7 @@
         <v>100</v>
       </c>
       <c r="K1066" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L1066" s="11" t="s">
         <v>655</v>
@@ -27103,7 +27103,7 @@
         <v>100</v>
       </c>
       <c r="K1265" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L1265" s="11" t="s">
         <v>655</v>
@@ -29758,7 +29758,7 @@
         <v>100</v>
       </c>
       <c r="K1412" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L1412" s="11" t="s">
         <v>655</v>
@@ -32460,7 +32460,7 @@
         <v>100</v>
       </c>
       <c r="K1568" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
